--- a/Book_Exercise_Files/Sets_toy_model.xlsx
+++ b/Book_Exercise_Files/Sets_toy_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/Storage-Master/Model-Data/Cristiano_Toy_Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/The_OSeMOSYS_EBook_by_IESVic/Book_Exercise_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{490F9941-9506-4624-A8E8-85BD5D63A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90704F69-AB02-45FB-8AE7-B7FE10C9C306}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{490F9941-9506-4624-A8E8-85BD5D63A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ED4A9D8-D114-4A61-8B9A-6C5AA022AE29}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="754" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUEL" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t>Fuel</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>tEXTRACT2</t>
+  </si>
+  <si>
+    <t>tIND_FURN</t>
   </si>
 </sst>
 </file>
@@ -216,6 +219,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -236,11 +249,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -276,6 +289,23 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -295,13 +325,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -348,26 +371,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -424,10 +427,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{520279B0-DD46-479D-8387-AC7A44E0476E}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{520279B0-DD46-479D-8387-AC7A44E0476E}"/>
@@ -451,8 +450,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4F20B566-3EFB-4445-9A6E-69FC7118B415}" name="Table11" displayName="Table11" ref="A1:B14" totalsRowShown="0">
-  <autoFilter ref="A1:B14" xr:uid="{4F20B566-3EFB-4445-9A6E-69FC7118B415}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4F20B566-3EFB-4445-9A6E-69FC7118B415}" name="Table11" displayName="Table11" ref="A1:B15" totalsRowShown="0">
+  <autoFilter ref="A1:B15" xr:uid="{4F20B566-3EFB-4445-9A6E-69FC7118B415}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{4F1A4D3E-78BE-4514-838F-D0B7B65BA1BB}" name="Included"/>
     <tableColumn id="1" xr3:uid="{E9F76C81-6A54-47C8-9018-D1C2C4437518}" name="Technology"/>
@@ -814,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -933,14 +932,14 @@
       <formula>"#"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B3">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,10 +951,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6CDC00-419E-4445-BD60-143F673A3CEB}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,23 +984,23 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1009,15 +1008,15 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,15 +1048,15 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1065,19 +1064,27 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B14">
+  <conditionalFormatting sqref="A2:B15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -1168,14 +1175,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:B2">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B2">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,13 +1839,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B13">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B13">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
